--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\BluetoothSpeaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6894C4D6-515F-4639-B737-D41203616B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1337E07A-9418-4840-B45B-A82A2CA8FE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DCEA6F90-6514-4747-AF16-26E7D42FF3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCEA6F90-6514-4747-AF16-26E7D42FF3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="900" sheetId="1" r:id="rId1"/>
@@ -327,6 +327,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144449</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14C2725-7D7E-468F-B82A-3A0A08C615E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581651" y="504825"/>
+          <a:ext cx="3821098" cy="5657850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563576C0-0ED9-44B9-9BC4-0820D5CFFB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191126" y="304801"/>
+          <a:ext cx="5962650" cy="4772824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115406</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46DFB7D-D70E-4D85-9E99-B434AB185D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="361950"/>
+          <a:ext cx="7925906" cy="5734850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF656EE6-B19F-4B10-9789-903D32B35C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="419100"/>
+          <a:ext cx="6105525" cy="5666666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437276</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD178E8-2862-49E3-BEB8-3518D5CA9496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="628650"/>
+          <a:ext cx="5647451" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B445474B-E041-4A60-AF8F-2B954BFB3995}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +1050,7 @@
   <ignoredErrors>
     <ignoredError sqref="B13" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -813,7 +1059,7 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,6 +1269,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1031,7 +1278,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C31:C32"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1426,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1187,7 +1435,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,6 +1567,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1326,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABBC3F1-AA60-4375-A0A2-08F21A07B2B5}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,5 +1716,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>